--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01064165722506156</v>
+        <v>-0.01725120502155203</v>
       </c>
       <c r="C2">
-        <v>1.4457030009673</v>
+        <v>1.384110966838059</v>
       </c>
       <c r="D2">
-        <v>8.757661946936523</v>
+        <v>8.376137918165924</v>
       </c>
       <c r="E2">
-        <v>2.959334713569339</v>
+        <v>2.894155821334768</v>
       </c>
       <c r="F2">
-        <v>3.028956062860261</v>
+        <v>2.959148581664683</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1057000273176439</v>
+        <v>-0.1059444359486</v>
       </c>
       <c r="C3">
-        <v>1.429381664828222</v>
+        <v>1.363387133547353</v>
       </c>
       <c r="D3">
-        <v>8.348262251371553</v>
+        <v>7.96756717039053</v>
       </c>
       <c r="E3">
-        <v>2.889335953358756</v>
+        <v>2.822687933582197</v>
       </c>
       <c r="F3">
-        <v>2.958706515248924</v>
+        <v>2.887077487796805</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5533781653781482</v>
+        <v>-0.5314575476434735</v>
       </c>
       <c r="C4">
-        <v>0.9838110950134815</v>
+        <v>0.935032954889049</v>
       </c>
       <c r="D4">
-        <v>4.162027514816797</v>
+        <v>3.962372580821567</v>
       </c>
       <c r="E4">
-        <v>2.04010478035242</v>
+        <v>1.990570918310013</v>
       </c>
       <c r="F4">
-        <v>2.014630727793039</v>
+        <v>1.965686070731558</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1254169797412491</v>
+        <v>-0.1228908575652036</v>
       </c>
       <c r="C5">
-        <v>0.6292378930413424</v>
+        <v>0.5948419731728133</v>
       </c>
       <c r="D5">
-        <v>0.94278273826223</v>
+        <v>0.8938785104026519</v>
       </c>
       <c r="E5">
-        <v>0.9709699986416831</v>
+        <v>0.9454514849544908</v>
       </c>
       <c r="F5">
-        <v>0.9892200370224752</v>
+        <v>0.9617836213211481</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.07984804025652048</v>
+        <v>-0.07803016097268373</v>
       </c>
       <c r="C6">
-        <v>0.6307496203848055</v>
+        <v>0.595167622792783</v>
       </c>
       <c r="D6">
-        <v>0.7016782114047131</v>
+        <v>0.6624405579447651</v>
       </c>
       <c r="E6">
-        <v>0.837662349282044</v>
+        <v>0.8139045140216173</v>
       </c>
       <c r="F6">
-        <v>0.8580225224554666</v>
+        <v>0.8323555993064871</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.12596358335141</v>
+        <v>-0.1177682127167521</v>
       </c>
       <c r="C7">
-        <v>0.5576815445666784</v>
+        <v>0.5278966303169981</v>
       </c>
       <c r="D7">
-        <v>0.6625899158906151</v>
+        <v>0.6234154974736094</v>
       </c>
       <c r="E7">
-        <v>0.8139962628234942</v>
+        <v>0.7895666516980118</v>
       </c>
       <c r="F7">
-        <v>0.8289410623092455</v>
+        <v>0.8033690317453926</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.004716166735411878</v>
+        <v>0.008373115946536357</v>
       </c>
       <c r="C8">
-        <v>0.4246577403850764</v>
+        <v>0.403612244087397</v>
       </c>
       <c r="D8">
-        <v>0.3914765290368093</v>
+        <v>0.3646454851063948</v>
       </c>
       <c r="E8">
-        <v>0.6256808523814752</v>
+        <v>0.6038588287889768</v>
       </c>
       <c r="F8">
-        <v>0.6461820480808862</v>
+        <v>0.6223835931625885</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01416927226753194</v>
+        <v>0.005946962572950867</v>
       </c>
       <c r="C9">
-        <v>0.3785127964763999</v>
+        <v>0.3740864020203869</v>
       </c>
       <c r="D9">
-        <v>0.2684964171401654</v>
+        <v>0.2564549243757536</v>
       </c>
       <c r="E9">
-        <v>0.5181663990844693</v>
+        <v>0.5064137877030538</v>
       </c>
       <c r="F9">
-        <v>0.5361526123991197</v>
+        <v>0.5229858460921323</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.006161243521745153</v>
+        <v>0.01722052028762557</v>
       </c>
       <c r="C10">
-        <v>0.3529559938570491</v>
+        <v>0.3408956206005759</v>
       </c>
       <c r="D10">
-        <v>0.250215500066719</v>
+        <v>0.2330792879415247</v>
       </c>
       <c r="E10">
-        <v>0.5002154536464453</v>
+        <v>0.4827828579615527</v>
       </c>
       <c r="F10">
-        <v>0.5190587300422376</v>
+        <v>0.4994097318934355</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04072198951145591</v>
+        <v>0.04981916865326922</v>
       </c>
       <c r="C11">
-        <v>0.3126946901976019</v>
+        <v>0.3023652478618333</v>
       </c>
       <c r="D11">
-        <v>0.2413744907413494</v>
+        <v>0.214504976889282</v>
       </c>
       <c r="E11">
-        <v>0.4912987795032158</v>
+        <v>0.4631468200142175</v>
       </c>
       <c r="F11">
-        <v>0.5096003936133453</v>
+        <v>0.4778414914637334</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01725120502155203</v>
+        <v>-0.1059444359486</v>
       </c>
       <c r="C2">
-        <v>1.384110966838059</v>
+        <v>1.363387133547353</v>
       </c>
       <c r="D2">
-        <v>8.376137918165924</v>
+        <v>7.96756717039053</v>
       </c>
       <c r="E2">
-        <v>2.894155821334768</v>
+        <v>2.822687933582197</v>
       </c>
       <c r="F2">
-        <v>2.959148581664683</v>
+        <v>2.887077487796805</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1059444359486</v>
+        <v>-0.5314575476434735</v>
       </c>
       <c r="C3">
-        <v>1.363387133547353</v>
+        <v>0.935032954889049</v>
       </c>
       <c r="D3">
-        <v>7.96756717039053</v>
+        <v>3.962372580821567</v>
       </c>
       <c r="E3">
-        <v>2.822687933582197</v>
+        <v>1.990570918310013</v>
       </c>
       <c r="F3">
-        <v>2.887077487796805</v>
+        <v>1.965686070731558</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5314575476434735</v>
+        <v>-0.1228908575652036</v>
       </c>
       <c r="C4">
-        <v>0.935032954889049</v>
+        <v>0.5948419731728133</v>
       </c>
       <c r="D4">
-        <v>3.962372580821567</v>
+        <v>0.8938785104026519</v>
       </c>
       <c r="E4">
-        <v>1.990570918310013</v>
+        <v>0.9454514849544908</v>
       </c>
       <c r="F4">
-        <v>1.965686070731558</v>
+        <v>0.9617836213211481</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1228908575652036</v>
+        <v>-0.07803016097268373</v>
       </c>
       <c r="C5">
-        <v>0.5948419731728133</v>
+        <v>0.595167622792783</v>
       </c>
       <c r="D5">
-        <v>0.8938785104026519</v>
+        <v>0.6624405579447651</v>
       </c>
       <c r="E5">
-        <v>0.9454514849544908</v>
+        <v>0.8139045140216173</v>
       </c>
       <c r="F5">
-        <v>0.9617836213211481</v>
+        <v>0.8323555993064871</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.07803016097268373</v>
+        <v>-0.1177682127167521</v>
       </c>
       <c r="C6">
-        <v>0.595167622792783</v>
+        <v>0.5278966303169981</v>
       </c>
       <c r="D6">
-        <v>0.6624405579447651</v>
+        <v>0.6234154974736094</v>
       </c>
       <c r="E6">
-        <v>0.8139045140216173</v>
+        <v>0.7895666516980118</v>
       </c>
       <c r="F6">
-        <v>0.8323555993064871</v>
+        <v>0.8033690317453926</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1177682127167521</v>
+        <v>0.008373115946536357</v>
       </c>
       <c r="C7">
-        <v>0.5278966303169981</v>
+        <v>0.403612244087397</v>
       </c>
       <c r="D7">
-        <v>0.6234154974736094</v>
+        <v>0.3646454851063948</v>
       </c>
       <c r="E7">
-        <v>0.7895666516980118</v>
+        <v>0.6038588287889768</v>
       </c>
       <c r="F7">
-        <v>0.8033690317453926</v>
+        <v>0.6223835931625885</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.008373115946536357</v>
+        <v>0.005946962572950867</v>
       </c>
       <c r="C8">
-        <v>0.403612244087397</v>
+        <v>0.3740864020203869</v>
       </c>
       <c r="D8">
-        <v>0.3646454851063948</v>
+        <v>0.2564549243757536</v>
       </c>
       <c r="E8">
-        <v>0.6038588287889768</v>
+        <v>0.5064137877030538</v>
       </c>
       <c r="F8">
-        <v>0.6223835931625885</v>
+        <v>0.5229858460921323</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.005946962572950867</v>
+        <v>0.01722052028762557</v>
       </c>
       <c r="C9">
-        <v>0.3740864020203869</v>
+        <v>0.3408956206005759</v>
       </c>
       <c r="D9">
-        <v>0.2564549243757536</v>
+        <v>0.2330792879415247</v>
       </c>
       <c r="E9">
-        <v>0.5064137877030538</v>
+        <v>0.4827828579615527</v>
       </c>
       <c r="F9">
-        <v>0.5229858460921323</v>
+        <v>0.4994097318934355</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01722052028762557</v>
+        <v>0.04981916865326922</v>
       </c>
       <c r="C10">
-        <v>0.3408956206005759</v>
+        <v>0.3023652478618333</v>
       </c>
       <c r="D10">
-        <v>0.2330792879415247</v>
+        <v>0.214504976889282</v>
       </c>
       <c r="E10">
-        <v>0.4827828579615527</v>
+        <v>0.4631468200142175</v>
       </c>
       <c r="F10">
-        <v>0.4994097318934355</v>
+        <v>0.4778414914637334</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04981916865326922</v>
+        <v>0.04725829266369586</v>
       </c>
       <c r="C11">
-        <v>0.3023652478618333</v>
+        <v>0.2893550570030588</v>
       </c>
       <c r="D11">
-        <v>0.214504976889282</v>
+        <v>0.1792966116684929</v>
       </c>
       <c r="E11">
-        <v>0.4631468200142175</v>
+        <v>0.4234343062016739</v>
       </c>
       <c r="F11">
-        <v>0.4778414914637334</v>
+        <v>0.4379709323268563</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1059444359486</v>
+        <v>-0.01725120502155203</v>
       </c>
       <c r="C2">
-        <v>1.363387133547353</v>
+        <v>1.384110966838059</v>
       </c>
       <c r="D2">
-        <v>7.96756717039053</v>
+        <v>8.376137918165924</v>
       </c>
       <c r="E2">
-        <v>2.822687933582197</v>
+        <v>2.894155821334768</v>
       </c>
       <c r="F2">
-        <v>2.887077487796805</v>
+        <v>2.959148581664683</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.5314575476434735</v>
+        <v>-0.1059444359486</v>
       </c>
       <c r="C3">
-        <v>0.935032954889049</v>
+        <v>1.363387133547353</v>
       </c>
       <c r="D3">
-        <v>3.962372580821567</v>
+        <v>7.96756717039053</v>
       </c>
       <c r="E3">
-        <v>1.990570918310013</v>
+        <v>2.822687933582197</v>
       </c>
       <c r="F3">
-        <v>1.965686070731558</v>
+        <v>2.887077487796805</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.1228908575652036</v>
+        <v>-0.5314575476434735</v>
       </c>
       <c r="C4">
-        <v>0.5948419731728133</v>
+        <v>0.935032954889049</v>
       </c>
       <c r="D4">
-        <v>0.8938785104026519</v>
+        <v>3.962372580821567</v>
       </c>
       <c r="E4">
-        <v>0.9454514849544908</v>
+        <v>1.990570918310013</v>
       </c>
       <c r="F4">
-        <v>0.9617836213211481</v>
+        <v>1.965686070731558</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.07803016097268373</v>
+        <v>-0.1228908575652036</v>
       </c>
       <c r="C5">
-        <v>0.595167622792783</v>
+        <v>0.5948419731728133</v>
       </c>
       <c r="D5">
-        <v>0.6624405579447651</v>
+        <v>0.8938785104026519</v>
       </c>
       <c r="E5">
-        <v>0.8139045140216173</v>
+        <v>0.9454514849544908</v>
       </c>
       <c r="F5">
-        <v>0.8323555993064871</v>
+        <v>0.9617836213211481</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1177682127167521</v>
+        <v>-0.07803016097268373</v>
       </c>
       <c r="C6">
-        <v>0.5278966303169981</v>
+        <v>0.595167622792783</v>
       </c>
       <c r="D6">
-        <v>0.6234154974736094</v>
+        <v>0.6624405579447651</v>
       </c>
       <c r="E6">
-        <v>0.7895666516980118</v>
+        <v>0.8139045140216173</v>
       </c>
       <c r="F6">
-        <v>0.8033690317453926</v>
+        <v>0.8323555993064871</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.008373115946536357</v>
+        <v>-0.1177682127167521</v>
       </c>
       <c r="C7">
-        <v>0.403612244087397</v>
+        <v>0.5278966303169981</v>
       </c>
       <c r="D7">
-        <v>0.3646454851063948</v>
+        <v>0.6234154974736094</v>
       </c>
       <c r="E7">
-        <v>0.6038588287889768</v>
+        <v>0.7895666516980118</v>
       </c>
       <c r="F7">
-        <v>0.6223835931625885</v>
+        <v>0.8033690317453926</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.005946962572950867</v>
+        <v>0.008373115946536357</v>
       </c>
       <c r="C8">
-        <v>0.3740864020203869</v>
+        <v>0.403612244087397</v>
       </c>
       <c r="D8">
-        <v>0.2564549243757536</v>
+        <v>0.3646454851063948</v>
       </c>
       <c r="E8">
-        <v>0.5064137877030538</v>
+        <v>0.6038588287889768</v>
       </c>
       <c r="F8">
-        <v>0.5229858460921323</v>
+        <v>0.6223835931625885</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01722052028762557</v>
+        <v>0.005946962572950867</v>
       </c>
       <c r="C9">
-        <v>0.3408956206005759</v>
+        <v>0.3740864020203869</v>
       </c>
       <c r="D9">
-        <v>0.2330792879415247</v>
+        <v>0.2564549243757536</v>
       </c>
       <c r="E9">
-        <v>0.4827828579615527</v>
+        <v>0.5064137877030538</v>
       </c>
       <c r="F9">
-        <v>0.4994097318934355</v>
+        <v>0.5229858460921323</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.04981916865326922</v>
+        <v>0.01722052028762557</v>
       </c>
       <c r="C10">
-        <v>0.3023652478618333</v>
+        <v>0.3408956206005759</v>
       </c>
       <c r="D10">
-        <v>0.214504976889282</v>
+        <v>0.2330792879415247</v>
       </c>
       <c r="E10">
-        <v>0.4631468200142175</v>
+        <v>0.4827828579615527</v>
       </c>
       <c r="F10">
-        <v>0.4778414914637334</v>
+        <v>0.4994097318934355</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04725829266369586</v>
+        <v>0.04981916865326922</v>
       </c>
       <c r="C11">
-        <v>0.2893550570030588</v>
+        <v>0.3023652478618333</v>
       </c>
       <c r="D11">
-        <v>0.1792966116684929</v>
+        <v>0.214504976889282</v>
       </c>
       <c r="E11">
-        <v>0.4234343062016739</v>
+        <v>0.4631468200142175</v>
       </c>
       <c r="F11">
-        <v>0.4379709323268563</v>
+        <v>0.4778414914637334</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
